--- a/Data/Data_Conversion/ContentList.xlsx
+++ b/Data/Data_Conversion/ContentList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moyer/Technophobia/Topic_List/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moyer/Technophobia/Data/Data_Conversion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0548B0-6DF1-A44F-811A-C65791FC0E9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560102A9-E158-BA4D-AE8A-42ABA4EB6591}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28120" windowHeight="21100" xr2:uid="{BE8A778B-FE9C-A84B-861D-EBE13A9F939D}"/>
+    <workbookView xWindow="1940" yWindow="460" windowWidth="28120" windowHeight="21100" xr2:uid="{BE8A778B-FE9C-A84B-861D-EBE13A9F939D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Apache</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>Tools for defensive and offensive cybersecurity, networking, systems, web technologies, and databases.</t>
+  </si>
+  <si>
+    <t>Development tools such as linkers, compilers, code editors, GUI designers, IDEs , assemblers, debuggers, and other tools.</t>
   </si>
 </sst>
 </file>
@@ -542,7 +545,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0.2"/>
@@ -739,7 +742,9 @@
       <c r="B16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1">

--- a/Data/Data_Conversion/ContentList.xlsx
+++ b/Data/Data_Conversion/ContentList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moyer/Technophobia/Data/Data_Conversion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560102A9-E158-BA4D-AE8A-42ABA4EB6591}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8887A0-F4A4-A24F-B797-A7DCE48DB299}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1940" yWindow="460" windowWidth="28120" windowHeight="21100" xr2:uid="{BE8A778B-FE9C-A84B-861D-EBE13A9F939D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="32200" windowHeight="21100" xr2:uid="{BE8A778B-FE9C-A84B-861D-EBE13A9F939D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>Apache</t>
   </si>
@@ -117,21 +117,12 @@
     <t>MySQL</t>
   </si>
   <si>
-    <t>DESCRIPTION</t>
-  </si>
-  <si>
-    <t>TOPIC</t>
-  </si>
-  <si>
     <t>Music and Film Production using Logic Pro and Final Cut Pro.</t>
   </si>
   <si>
     <t>Agentless management of installs, deployments and many other tasks that can be automated.</t>
   </si>
   <si>
-    <t>open source 3D creation suite. It supports modeling, rigging, animation, simulation, rendering, compositing and motion tracking, video editing and a 2D animation pipeline.</t>
-  </si>
-  <si>
     <t>Cryptocurrency</t>
   </si>
   <si>
@@ -201,20 +192,199 @@
     <t>C/C++/Obj-C</t>
   </si>
   <si>
-    <t>TOPIC_ID</t>
-  </si>
-  <si>
     <t>Tools for defensive and offensive cybersecurity, networking, systems, web technologies, and databases.</t>
   </si>
   <si>
     <t>Development tools such as linkers, compilers, code editors, GUI designers, IDEs , assemblers, debuggers, and other tools.</t>
+  </si>
+  <si>
+    <t>Django is a high-level Python Web framework that encourages rapid development and clean, pragmatic design.</t>
+  </si>
+  <si>
+    <t>iOS (formerly iPhone OS) is a mobile operating system created and developed by Apple Inc.exclusively for its hardware.</t>
+  </si>
+  <si>
+    <t>Java is a class-based, object-oriented programming language intending to let application developers write once, run anywhere (WORA),</t>
+  </si>
+  <si>
+    <t>A JavaScript library designed to simplify HTML DOM tree traversal and manipulation, as well as event handling, CSS animation, and Ajax.</t>
+  </si>
+  <si>
+    <t>A family of open-source Unix-like operating systems based on the Linux kernel, typically packaged in a Linux distribution.</t>
+  </si>
+  <si>
+    <t>Visual Studio Code, BBEdit, vim, emacs and other source code others.</t>
+  </si>
+  <si>
+    <t>HTML5 is the newest markup language used for structuring and presenting content on the World Wide Web.</t>
+  </si>
+  <si>
+    <t>Cross-platform software suite for displaying, creating, converting, modifying, and editing raster images. </t>
+  </si>
+  <si>
+    <t>Open source 3D creation suite. It supports modeling, rigging, animation, simulation, rendering, compositing and motion tracking, video editing and a 2D animation pipeline.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> An open-source relational database management system that is typically used with other programs to implement applications that need relational database capability.</t>
+  </si>
+  <si>
+    <r>
+      <t>JavaScript is high-level, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t>just-in-time compiled</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, and multi-paradigm. It uses curly-bracket syntax, dynamic typing, prototype-based object-orientation, and first-class functions.</t>
+    </r>
+  </si>
+  <si>
+    <t>"Perl" refers to Perl 5, but from 2000 to 2019 it also referred to its redesigned "sister language", Perl 6, before the latter's name was officially changed to Raku in October 2019.</t>
+  </si>
+  <si>
+    <t>Adobe Photoshop is a raster graphics editor developed and published by Adobe Inc. for Windows and macOS.</t>
+  </si>
+  <si>
+    <t>PHP is a general-purpose scripting language especially suited to web development.</t>
+  </si>
+  <si>
+    <t>Python is an interpreted high-level general-purpose programming language. Python's design philosophy emphasizes code readability with its notable use of significant indentation. </t>
+  </si>
+  <si>
+    <t>Raspberry Pi is a series of small single-board computers developed in the United Kingdom by the Raspberry Pi Foundation in association with Broadcom.</t>
+  </si>
+  <si>
+    <r>
+      <t>Ruby</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> is an interpreted, high-level, general-purpose programming language. It was designed and developed in the mid-1990s by Yukihiro "Matz" Matsumoto in Japan.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cybersecurity refers to the security of devices such as </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>computers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> and smartphones, as well as private and public networks, and the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Internet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Keyboard shortcuts are a means for invoking one or more commands using the keyboard rather than a menu, a pointing device,  a user interface, or via a command-line interface.</t>
+  </si>
+  <si>
+    <r>
+      <t>Structured Query Language)</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> is a domain-specific language used in programming and designed for managing data held in a relational database management system (RDBMS).</t>
+    </r>
+  </si>
+  <si>
+    <t>Transport Layer Security (TLS), and its now-deprecated predecessor, Secure Sockets Layer (SSL), are cryptographic protocols designed to provide communications security over a computer network.</t>
+  </si>
+  <si>
+    <t>Swift is a general-purpose, multi-paradigm, compiled programming language developed by Apple Inc. and the open-source community, first released in 2014.</t>
+  </si>
+  <si>
+    <t>Unreal Engine is a state-of-the-art real-time editor that features photorealistic rendering, dynamic physics and effects, lifelike animation, robust data translation, and much more.</t>
+  </si>
+  <si>
+    <t>a group of several proprietary graphical operating system families, all of which are developed and marketed by Microsoft.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Apple's integrated development environment (IDE) for macOS, used to develop software for macOS, iOS, iPadOS, watchOS, and tvOS.</t>
+  </si>
+  <si>
+    <t>SwiftUI is an innovative, simple way to build user interfaces across all Apple platforms with the power of Swift.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -228,9 +398,41 @@
       <name val="Arial (Body)"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="14"/>
       <color theme="1"/>
-      <name val="Arial (Body)"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF0B0080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -253,15 +455,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -542,461 +741,503 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1457EE29-938F-5B46-AE59-A9CDE9D3D73F}">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="166" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="2"/>
+    <col min="4" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>55</v>
+      <c r="A1" s="1">
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>1</v>
+        <f>A1+1</f>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>44</v>
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <f>A2+1</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>45</v>
+        <v>21</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <f>A3+1</f>
-        <v>3</v>
+        <f t="shared" ref="A4:A40" si="0">A3+1</f>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <f t="shared" ref="A5:A41" si="0">A4+1</f>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>46</v>
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>51</v>
+        <v>30</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>52</v>
+        <v>31</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>53</v>
+        <v>32</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>56</v>
+        <v>33</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>57</v>
+        <v>6</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" s="1"/>
+      <c r="C37" s="2" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="1"/>
+      <c r="C38" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C40" s="1"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="B41" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C41" s="1"/>
+      <c r="C40" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C35" r:id="rId1" tooltip="Cryptographic protocols" display="https://en.wikipedia.org/wiki/Cryptographic_protocols" xr:uid="{2BB7F828-AF46-B04B-BD2F-2517591C11BC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
